--- a/database/industries/folad/kechad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/kechad/income/quarterly/rial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7C5525-3EF9-45A1-923A-8F593C36182B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F02F76-15C7-4542-85E6-15A646864458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>کچاد-معدنی‌وصنعتی‌چادرملو</t>
@@ -37,24 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل اول منتهی به 1399/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/09</t>
-  </si>
-  <si>
-    <t>فصل چهارم منتهی به 1399/12</t>
-  </si>
-  <si>
-    <t>فصل اول منتهی به 1400/03</t>
-  </si>
-  <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -67,37 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-04-29 (2)</t>
-  </si>
-  <si>
-    <t>1400-09-16 (3)</t>
-  </si>
-  <si>
-    <t>1400-10-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-04-08 (9)</t>
-  </si>
-  <si>
-    <t>1401-04-30 (2)</t>
-  </si>
-  <si>
-    <t>1401-07-30 (3)</t>
-  </si>
-  <si>
-    <t>1400-10-30</t>
-  </si>
-  <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-10-28 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28 (7)</t>
   </si>
   <si>
     <t>1401-04-30</t>
   </si>
   <si>
-    <t>1401-07-30</t>
+    <t>1401-09-15 (2)</t>
+  </si>
+  <si>
+    <t>1401-10-28</t>
   </si>
   <si>
     <t>فروش</t>
@@ -615,7 +585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,14 +593,12 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="31" customWidth="1"/>
-    <col min="8" max="10" width="29" customWidth="1"/>
-    <col min="11" max="11" width="31" customWidth="1"/>
-    <col min="12" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -638,13 +606,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,13 +617,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -670,13 +628,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -684,13 +637,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -700,13 +648,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -716,13 +659,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -730,13 +668,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,59 +689,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -816,159 +719,94 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>23712697</v>
+        <v>120664382</v>
       </c>
       <c r="E11" s="13">
-        <v>50639415</v>
+        <v>120861677</v>
       </c>
       <c r="F11" s="13">
-        <v>82041194</v>
+        <v>124061091</v>
       </c>
       <c r="G11" s="13">
-        <v>119559862</v>
+        <v>82644045</v>
       </c>
       <c r="H11" s="13">
-        <v>97562783</v>
-      </c>
-      <c r="I11" s="13">
-        <v>117648384</v>
-      </c>
-      <c r="J11" s="13">
-        <v>119913504</v>
-      </c>
-      <c r="K11" s="13">
-        <v>120861677</v>
-      </c>
-      <c r="L11" s="13">
-        <v>124061091</v>
-      </c>
-      <c r="M11" s="13">
-        <v>83119805</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+        <v>102669900</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-10297000</v>
+        <v>-62279647</v>
       </c>
       <c r="E12" s="11">
-        <v>-17763109</v>
+        <v>-28725001</v>
       </c>
       <c r="F12" s="11">
-        <v>-25942263</v>
+        <v>-51932293</v>
       </c>
       <c r="G12" s="11">
-        <v>-38887749</v>
+        <v>-54061149</v>
       </c>
       <c r="H12" s="11">
-        <v>-32002681</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-39556786</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-66105633</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-28725001</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-51932293</v>
-      </c>
-      <c r="M12" s="11">
-        <v>-55704252</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-65535900</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>13415697</v>
+        <v>58384735</v>
       </c>
       <c r="E13" s="15">
-        <v>32876306</v>
+        <v>92136676</v>
       </c>
       <c r="F13" s="15">
-        <v>56098931</v>
+        <v>72128798</v>
       </c>
       <c r="G13" s="15">
-        <v>65821505</v>
+        <v>28582896</v>
       </c>
       <c r="H13" s="15">
-        <v>65560102</v>
-      </c>
-      <c r="I13" s="15">
-        <v>78091598</v>
-      </c>
-      <c r="J13" s="15">
-        <v>53807871</v>
-      </c>
-      <c r="K13" s="15">
-        <v>92136676</v>
-      </c>
-      <c r="L13" s="15">
-        <v>72128798</v>
-      </c>
-      <c r="M13" s="15">
-        <v>27415553</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+        <v>37134000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-124027</v>
+        <v>-1605751</v>
       </c>
       <c r="E14" s="11">
-        <v>-186498</v>
+        <v>-6526208</v>
       </c>
       <c r="F14" s="11">
-        <v>-207577</v>
+        <v>-1943227</v>
       </c>
       <c r="G14" s="11">
-        <v>-2654686</v>
+        <v>-2133645</v>
       </c>
       <c r="H14" s="11">
-        <v>-298837</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-2968762</v>
-      </c>
-      <c r="J14" s="11">
-        <v>2220235</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-6526208</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-1943227</v>
-      </c>
-      <c r="M14" s="11">
-        <v>-2133646</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-2276752</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -986,25 +824,10 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-      <c r="I15" s="13">
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
@@ -1022,68 +845,38 @@
       <c r="H16" s="11">
         <v>0</v>
       </c>
-      <c r="I16" s="11">
-        <v>0</v>
-      </c>
-      <c r="J16" s="11">
-        <v>0</v>
-      </c>
-      <c r="K16" s="11">
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
-        <v>0</v>
-      </c>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>13291670</v>
+        <v>56778984</v>
       </c>
       <c r="E17" s="15">
-        <v>32689808</v>
+        <v>85610468</v>
       </c>
       <c r="F17" s="15">
-        <v>55891354</v>
+        <v>70185571</v>
       </c>
       <c r="G17" s="15">
-        <v>63166819</v>
+        <v>26449251</v>
       </c>
       <c r="H17" s="15">
-        <v>65261265</v>
-      </c>
-      <c r="I17" s="15">
-        <v>75122836</v>
-      </c>
-      <c r="J17" s="15">
-        <v>56028106</v>
-      </c>
-      <c r="K17" s="15">
-        <v>85610468</v>
-      </c>
-      <c r="L17" s="15">
-        <v>70185571</v>
-      </c>
-      <c r="M17" s="15">
-        <v>25281907</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+        <v>34857248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-41823</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11">
-        <v>-18007</v>
+        <v>0</v>
       </c>
       <c r="F18" s="11">
         <v>0</v>
@@ -1094,169 +887,94 @@
       <c r="H18" s="11">
         <v>0</v>
       </c>
-      <c r="I18" s="11">
-        <v>0</v>
-      </c>
-      <c r="J18" s="11">
-        <v>0</v>
-      </c>
-      <c r="K18" s="11">
-        <v>0</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0</v>
-      </c>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>682339</v>
+        <v>3289835</v>
       </c>
       <c r="E19" s="13">
-        <v>612174</v>
+        <v>2427417</v>
       </c>
       <c r="F19" s="13">
-        <v>458804</v>
+        <v>3606165</v>
       </c>
       <c r="G19" s="13">
-        <v>3807713</v>
+        <v>4389417</v>
       </c>
       <c r="H19" s="13">
-        <v>2579920</v>
-      </c>
-      <c r="I19" s="13">
-        <v>2133012</v>
-      </c>
-      <c r="J19" s="13">
-        <v>4040714</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2427417</v>
-      </c>
-      <c r="L19" s="13">
-        <v>3606165</v>
-      </c>
-      <c r="M19" s="13">
-        <v>3340809</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>9744995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>13932186</v>
+        <v>60068819</v>
       </c>
       <c r="E20" s="17">
-        <v>33283975</v>
+        <v>88037885</v>
       </c>
       <c r="F20" s="17">
-        <v>56350158</v>
+        <v>73791736</v>
       </c>
       <c r="G20" s="17">
-        <v>81825140</v>
+        <v>30838668</v>
       </c>
       <c r="H20" s="17">
-        <v>67841185</v>
-      </c>
-      <c r="I20" s="17">
-        <v>77255848</v>
-      </c>
-      <c r="J20" s="17">
-        <v>60068820</v>
-      </c>
-      <c r="K20" s="17">
-        <v>88037885</v>
-      </c>
-      <c r="L20" s="17">
-        <v>73791736</v>
-      </c>
-      <c r="M20" s="17">
-        <v>28622716</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>44602243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1300368</v>
+        <v>-6658815</v>
       </c>
       <c r="E21" s="13">
-        <v>-2723975</v>
+        <v>-919601</v>
       </c>
       <c r="F21" s="13">
-        <v>-5013239</v>
+        <v>-4852773</v>
       </c>
       <c r="G21" s="13">
-        <v>-5421097</v>
+        <v>-3730659</v>
       </c>
       <c r="H21" s="13">
-        <v>-7711812</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-8436615</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-6658815</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-919601</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-4852773</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-3461499</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>-500193</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>12631818</v>
+        <v>53410004</v>
       </c>
       <c r="E22" s="17">
-        <v>30560000</v>
+        <v>87118284</v>
       </c>
       <c r="F22" s="17">
-        <v>51336919</v>
+        <v>68938963</v>
       </c>
       <c r="G22" s="17">
-        <v>76404043</v>
+        <v>27108009</v>
       </c>
       <c r="H22" s="17">
-        <v>60129373</v>
-      </c>
-      <c r="I22" s="17">
-        <v>68819233</v>
-      </c>
-      <c r="J22" s="17">
-        <v>53410005</v>
-      </c>
-      <c r="K22" s="17">
-        <v>87118284</v>
-      </c>
-      <c r="L22" s="17">
-        <v>68938963</v>
-      </c>
-      <c r="M22" s="17">
-        <v>25161217</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>44102050</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -1274,167 +992,92 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>12631818</v>
+        <v>53410004</v>
       </c>
       <c r="E24" s="17">
-        <v>30560000</v>
+        <v>87118284</v>
       </c>
       <c r="F24" s="17">
-        <v>51336919</v>
+        <v>68938963</v>
       </c>
       <c r="G24" s="17">
-        <v>76404043</v>
+        <v>27108009</v>
       </c>
       <c r="H24" s="17">
-        <v>60129373</v>
-      </c>
-      <c r="I24" s="17">
-        <v>68819233</v>
-      </c>
-      <c r="J24" s="17">
-        <v>53410005</v>
-      </c>
-      <c r="K24" s="17">
-        <v>87118284</v>
-      </c>
-      <c r="L24" s="17">
-        <v>68938963</v>
-      </c>
-      <c r="M24" s="17">
-        <v>25161217</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>44102050</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>287</v>
+        <v>449</v>
       </c>
       <c r="E25" s="13">
-        <v>551</v>
+        <v>732</v>
       </c>
       <c r="F25" s="13">
-        <v>925</v>
+        <v>579</v>
       </c>
       <c r="G25" s="13">
-        <v>1377</v>
+        <v>228</v>
       </c>
       <c r="H25" s="13">
-        <v>1083</v>
-      </c>
-      <c r="I25" s="13">
-        <v>1240</v>
-      </c>
-      <c r="J25" s="13">
-        <v>962</v>
-      </c>
-      <c r="K25" s="13">
-        <v>732</v>
-      </c>
-      <c r="L25" s="13">
-        <v>579</v>
-      </c>
-      <c r="M25" s="13">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>44000000</v>
+        <v>119000000</v>
       </c>
       <c r="E26" s="11">
-        <v>55500000</v>
+        <v>119000000</v>
       </c>
       <c r="F26" s="11">
-        <v>55500000</v>
+        <v>119000000</v>
       </c>
       <c r="G26" s="11">
-        <v>55500000</v>
+        <v>119000000</v>
       </c>
       <c r="H26" s="11">
-        <v>55500000</v>
-      </c>
-      <c r="I26" s="11">
-        <v>55500000</v>
-      </c>
-      <c r="J26" s="11">
-        <v>55500000</v>
-      </c>
-      <c r="K26" s="11">
         <v>119000000</v>
       </c>
-      <c r="L26" s="11">
-        <v>119000000</v>
-      </c>
-      <c r="M26" s="11">
-        <v>119000000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>106</v>
+        <v>449</v>
       </c>
       <c r="E27" s="13">
-        <v>257</v>
+        <v>732</v>
       </c>
       <c r="F27" s="13">
-        <v>431</v>
+        <v>579</v>
       </c>
       <c r="G27" s="13">
-        <v>642</v>
+        <v>228</v>
       </c>
       <c r="H27" s="13">
-        <v>505</v>
-      </c>
-      <c r="I27" s="13">
-        <v>578</v>
-      </c>
-      <c r="J27" s="13">
-        <v>449</v>
-      </c>
-      <c r="K27" s="13">
-        <v>732</v>
-      </c>
-      <c r="L27" s="13">
-        <v>579</v>
-      </c>
-      <c r="M27" s="13">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1442,11 +1085,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/kechad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/kechad/income/quarterly/rial.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\folad\kechad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F02F76-15C7-4542-85E6-15A646864458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A855C-BF4E-438B-BD6F-712A723F900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -53,6 +68,21 @@
   </si>
   <si>
     <t>تاریخ انتشار</t>
+  </si>
+  <si>
+    <t>1400-09-16 (3)</t>
+  </si>
+  <si>
+    <t>1400-10-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-04-08 (9)</t>
+  </si>
+  <si>
+    <t>1401-04-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-09-15 (4)</t>
   </si>
   <si>
     <t>1401-10-28 (2)</t>
@@ -585,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -606,8 +638,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -617,8 +654,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,8 +670,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -637,8 +684,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -648,8 +700,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -659,8 +716,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -668,8 +730,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -689,29 +756,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -719,94 +816,159 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>50639415</v>
+      </c>
+      <c r="E11" s="13">
+        <v>82041194</v>
+      </c>
+      <c r="F11" s="13">
+        <v>119559862</v>
+      </c>
+      <c r="G11" s="13">
+        <v>97562783</v>
+      </c>
+      <c r="H11" s="13">
+        <v>117385493</v>
+      </c>
+      <c r="I11" s="13">
         <v>120664382</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>120861677</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>124061091</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>82644045</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>102669900</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-17763109</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-25942263</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-38887749</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-32002681</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-39556786</v>
+      </c>
+      <c r="I12" s="11">
         <v>-62279647</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-28725001</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-51932293</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-54061149</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-65535900</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>32876306</v>
+      </c>
+      <c r="E13" s="15">
+        <v>56098931</v>
+      </c>
+      <c r="F13" s="15">
+        <v>65821505</v>
+      </c>
+      <c r="G13" s="15">
+        <v>65560102</v>
+      </c>
+      <c r="H13" s="15">
+        <v>77828707</v>
+      </c>
+      <c r="I13" s="15">
         <v>58384735</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>92136676</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>72128798</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>28582896</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>37134000</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-186498</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-207577</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-2654686</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-298837</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-2968762</v>
+      </c>
+      <c r="I14" s="11">
         <v>-1605751</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-6526208</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-1943227</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-2133645</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-2276752</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13">
@@ -824,10 +986,25 @@
       <c r="H15" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
@@ -845,35 +1022,65 @@
       <c r="H16" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>0</v>
+      </c>
+      <c r="K16" s="11">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11">
+        <v>0</v>
+      </c>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>32689808</v>
+      </c>
+      <c r="E17" s="15">
+        <v>55891354</v>
+      </c>
+      <c r="F17" s="15">
+        <v>63166819</v>
+      </c>
+      <c r="G17" s="15">
+        <v>65261265</v>
+      </c>
+      <c r="H17" s="15">
+        <v>74859945</v>
+      </c>
+      <c r="I17" s="15">
         <v>56778984</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>85610468</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>70185571</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>26449251</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>34857248</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>0</v>
+        <v>-18007</v>
       </c>
       <c r="E18" s="11">
         <v>0</v>
@@ -887,94 +1094,169 @@
       <c r="H18" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11">
+        <v>0</v>
+      </c>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>612174</v>
+      </c>
+      <c r="E19" s="13">
+        <v>458804</v>
+      </c>
+      <c r="F19" s="13">
+        <v>3807713</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2579920</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2395903</v>
+      </c>
+      <c r="I19" s="13">
         <v>3289835</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>2427417</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>3606165</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>4389417</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>9744995</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>33283975</v>
+      </c>
+      <c r="E20" s="17">
+        <v>56350158</v>
+      </c>
+      <c r="F20" s="17">
+        <v>81825140</v>
+      </c>
+      <c r="G20" s="17">
+        <v>67841185</v>
+      </c>
+      <c r="H20" s="17">
+        <v>77255848</v>
+      </c>
+      <c r="I20" s="17">
         <v>60068819</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>88037885</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>73791736</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>30838668</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>44602243</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-2723975</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-5013239</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-5421097</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-7711812</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-8436615</v>
+      </c>
+      <c r="I21" s="13">
         <v>-6658815</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-919601</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-4852773</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-3730659</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-500193</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>30560000</v>
+      </c>
+      <c r="E22" s="17">
+        <v>51336919</v>
+      </c>
+      <c r="F22" s="17">
+        <v>76404043</v>
+      </c>
+      <c r="G22" s="17">
+        <v>60129373</v>
+      </c>
+      <c r="H22" s="17">
+        <v>68819233</v>
+      </c>
+      <c r="I22" s="17">
         <v>53410004</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>87118284</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>68938963</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>27108009</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>44102050</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13">
@@ -992,92 +1274,167 @@
       <c r="H23" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>30560000</v>
+      </c>
+      <c r="E24" s="17">
+        <v>51336919</v>
+      </c>
+      <c r="F24" s="17">
+        <v>76404043</v>
+      </c>
+      <c r="G24" s="17">
+        <v>60129373</v>
+      </c>
+      <c r="H24" s="17">
+        <v>68819233</v>
+      </c>
+      <c r="I24" s="17">
         <v>53410004</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>87118284</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>68938963</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>27108009</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>44102050</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
+        <v>551</v>
+      </c>
+      <c r="E25" s="13">
+        <v>925</v>
+      </c>
+      <c r="F25" s="13">
+        <v>1377</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1083</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1240</v>
+      </c>
+      <c r="I25" s="13">
         <v>449</v>
       </c>
-      <c r="E25" s="13">
+      <c r="J25" s="13">
         <v>732</v>
       </c>
-      <c r="F25" s="13">
+      <c r="K25" s="13">
         <v>579</v>
       </c>
-      <c r="G25" s="13">
+      <c r="L25" s="13">
         <v>228</v>
       </c>
-      <c r="H25" s="13">
+      <c r="M25" s="13">
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>55500000</v>
+      </c>
+      <c r="E26" s="11">
+        <v>55500000</v>
+      </c>
+      <c r="F26" s="11">
+        <v>55500000</v>
+      </c>
+      <c r="G26" s="11">
+        <v>55500000</v>
+      </c>
+      <c r="H26" s="11">
+        <v>55500000</v>
+      </c>
+      <c r="I26" s="11">
         <v>119000000</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>119000000</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>119000000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>119000000</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>119000000</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>449</v>
+        <v>159</v>
       </c>
       <c r="E27" s="13">
-        <v>732</v>
+        <v>267</v>
       </c>
       <c r="F27" s="13">
-        <v>579</v>
+        <v>397</v>
       </c>
       <c r="G27" s="13">
-        <v>228</v>
+        <v>312</v>
       </c>
       <c r="H27" s="13">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+        <v>358</v>
+      </c>
+      <c r="I27" s="13">
+        <v>277</v>
+      </c>
+      <c r="J27" s="13">
+        <v>453</v>
+      </c>
+      <c r="K27" s="13">
+        <v>358</v>
+      </c>
+      <c r="L27" s="13">
+        <v>141</v>
+      </c>
+      <c r="M27" s="13">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1085,6 +1442,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/folad/kechad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/kechad/income/quarterly/rial.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\kechad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A855C-BF4E-438B-BD6F-712A723F900C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,10 +613,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H13" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1394,8 +1395,8 @@
       <c r="L26" s="11">
         <v>119000000</v>
       </c>
-      <c r="M26" s="11">
-        <v>119000000</v>
+      <c r="M26" s="13">
+        <v>192500000</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">

--- a/database/industries/folad/kechad/income/quarterly/rial.xlsx
+++ b/database/industries/folad/kechad/income/quarterly/rial.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\folad\kechad\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\kechad\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B55B52B9-7F98-4B6F-A552-A5D7F14CFD5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-09-16 (3)</t>
-  </si>
-  <si>
     <t>1400-10-30 (2)</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1401-10-28 (2)</t>
   </si>
   <si>
-    <t>1401-10-28 (7)</t>
+    <t>1402-01-29 (8)</t>
   </si>
   <si>
     <t>1401-04-30</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-10-28</t>
+  </si>
+  <si>
+    <t>1402-01-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -153,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -613,25 +614,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H13" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -809,7 +809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -823,151 +823,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>50639415</v>
+        <v>82041194</v>
       </c>
       <c r="E11" s="13">
-        <v>82041194</v>
+        <v>119559862</v>
       </c>
       <c r="F11" s="13">
-        <v>119559862</v>
+        <v>97562783</v>
       </c>
       <c r="G11" s="13">
-        <v>97562783</v>
+        <v>117385493</v>
       </c>
       <c r="H11" s="13">
-        <v>117385493</v>
+        <v>120664382</v>
       </c>
       <c r="I11" s="13">
-        <v>120664382</v>
+        <v>120373690</v>
       </c>
       <c r="J11" s="13">
-        <v>120861677</v>
+        <v>124061091</v>
       </c>
       <c r="K11" s="13">
-        <v>124061091</v>
+        <v>82644045</v>
       </c>
       <c r="L11" s="13">
-        <v>82644045</v>
+        <v>102669900</v>
       </c>
       <c r="M11" s="13">
-        <v>102669900</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>101126410</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-17763109</v>
+        <v>-25942263</v>
       </c>
       <c r="E12" s="11">
-        <v>-25942263</v>
+        <v>-38887749</v>
       </c>
       <c r="F12" s="11">
-        <v>-38887749</v>
+        <v>-32002681</v>
       </c>
       <c r="G12" s="11">
-        <v>-32002681</v>
+        <v>-39556786</v>
       </c>
       <c r="H12" s="11">
-        <v>-39556786</v>
+        <v>-62279647</v>
       </c>
       <c r="I12" s="11">
-        <v>-62279647</v>
+        <v>-32550987</v>
       </c>
       <c r="J12" s="11">
-        <v>-28725001</v>
+        <v>-51932293</v>
       </c>
       <c r="K12" s="11">
-        <v>-51932293</v>
+        <v>-54061149</v>
       </c>
       <c r="L12" s="11">
-        <v>-54061149</v>
+        <v>-65535900</v>
       </c>
       <c r="M12" s="11">
-        <v>-65535900</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-47556615</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>32876306</v>
+        <v>56098931</v>
       </c>
       <c r="E13" s="15">
-        <v>56098931</v>
+        <v>65821505</v>
       </c>
       <c r="F13" s="15">
-        <v>65821505</v>
+        <v>65560102</v>
       </c>
       <c r="G13" s="15">
-        <v>65560102</v>
+        <v>77828707</v>
       </c>
       <c r="H13" s="15">
-        <v>77828707</v>
+        <v>58384735</v>
       </c>
       <c r="I13" s="15">
-        <v>58384735</v>
+        <v>87822703</v>
       </c>
       <c r="J13" s="15">
-        <v>92136676</v>
+        <v>72128798</v>
       </c>
       <c r="K13" s="15">
-        <v>72128798</v>
+        <v>28582896</v>
       </c>
       <c r="L13" s="15">
-        <v>28582896</v>
+        <v>37134000</v>
       </c>
       <c r="M13" s="15">
-        <v>37134000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>53569795</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-186498</v>
+        <v>-207577</v>
       </c>
       <c r="E14" s="11">
-        <v>-207577</v>
+        <v>-2654686</v>
       </c>
       <c r="F14" s="11">
-        <v>-2654686</v>
+        <v>-298837</v>
       </c>
       <c r="G14" s="11">
-        <v>-298837</v>
+        <v>-2968762</v>
       </c>
       <c r="H14" s="11">
-        <v>-2968762</v>
+        <v>-1605751</v>
       </c>
       <c r="I14" s="11">
-        <v>-1605751</v>
+        <v>-2700222</v>
       </c>
       <c r="J14" s="11">
-        <v>-6526208</v>
+        <v>-1943227</v>
       </c>
       <c r="K14" s="11">
-        <v>-1943227</v>
+        <v>-2133645</v>
       </c>
       <c r="L14" s="11">
-        <v>-2133645</v>
+        <v>-2276752</v>
       </c>
       <c r="M14" s="11">
-        <v>-2276752</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-3596614</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1039,49 +1039,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>32689808</v>
+        <v>55891354</v>
       </c>
       <c r="E17" s="15">
-        <v>55891354</v>
+        <v>63166819</v>
       </c>
       <c r="F17" s="15">
-        <v>63166819</v>
+        <v>65261265</v>
       </c>
       <c r="G17" s="15">
-        <v>65261265</v>
+        <v>74859945</v>
       </c>
       <c r="H17" s="15">
-        <v>74859945</v>
+        <v>56778984</v>
       </c>
       <c r="I17" s="15">
-        <v>56778984</v>
+        <v>85122481</v>
       </c>
       <c r="J17" s="15">
-        <v>85610468</v>
+        <v>70185571</v>
       </c>
       <c r="K17" s="15">
-        <v>70185571</v>
+        <v>26449251</v>
       </c>
       <c r="L17" s="15">
-        <v>26449251</v>
+        <v>34857248</v>
       </c>
       <c r="M17" s="15">
-        <v>34857248</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>49973181</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-18007</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11">
         <v>0</v>
@@ -1111,151 +1111,151 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>612174</v>
+        <v>458804</v>
       </c>
       <c r="E19" s="13">
-        <v>458804</v>
+        <v>3807713</v>
       </c>
       <c r="F19" s="13">
-        <v>3807713</v>
+        <v>2579920</v>
       </c>
       <c r="G19" s="13">
-        <v>2579920</v>
+        <v>2395903</v>
       </c>
       <c r="H19" s="13">
-        <v>2395903</v>
+        <v>3289835</v>
       </c>
       <c r="I19" s="13">
-        <v>3289835</v>
+        <v>2915404</v>
       </c>
       <c r="J19" s="13">
-        <v>2427417</v>
+        <v>3606165</v>
       </c>
       <c r="K19" s="13">
-        <v>3606165</v>
+        <v>4389417</v>
       </c>
       <c r="L19" s="13">
-        <v>4389417</v>
+        <v>9744995</v>
       </c>
       <c r="M19" s="13">
-        <v>9744995</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>5261494</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>33283975</v>
+        <v>56350158</v>
       </c>
       <c r="E20" s="17">
-        <v>56350158</v>
+        <v>81825140</v>
       </c>
       <c r="F20" s="17">
-        <v>81825140</v>
+        <v>67841185</v>
       </c>
       <c r="G20" s="17">
-        <v>67841185</v>
+        <v>77255848</v>
       </c>
       <c r="H20" s="17">
-        <v>77255848</v>
+        <v>60068819</v>
       </c>
       <c r="I20" s="17">
-        <v>60068819</v>
+        <v>88037885</v>
       </c>
       <c r="J20" s="17">
-        <v>88037885</v>
+        <v>73791736</v>
       </c>
       <c r="K20" s="17">
-        <v>73791736</v>
+        <v>30838668</v>
       </c>
       <c r="L20" s="17">
-        <v>30838668</v>
+        <v>44602243</v>
       </c>
       <c r="M20" s="17">
-        <v>44602243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>55234675</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-2723975</v>
+        <v>-5013239</v>
       </c>
       <c r="E21" s="13">
-        <v>-5013239</v>
+        <v>-5421097</v>
       </c>
       <c r="F21" s="13">
-        <v>-5421097</v>
+        <v>-7711812</v>
       </c>
       <c r="G21" s="13">
-        <v>-7711812</v>
+        <v>-8436615</v>
       </c>
       <c r="H21" s="13">
-        <v>-8436615</v>
+        <v>-6658815</v>
       </c>
       <c r="I21" s="13">
-        <v>-6658815</v>
+        <v>-919601</v>
       </c>
       <c r="J21" s="13">
-        <v>-919601</v>
+        <v>-4852773</v>
       </c>
       <c r="K21" s="13">
-        <v>-4852773</v>
+        <v>-3730659</v>
       </c>
       <c r="L21" s="13">
-        <v>-3730659</v>
+        <v>-500193</v>
       </c>
       <c r="M21" s="13">
-        <v>-500193</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>9083625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>30560000</v>
+        <v>51336919</v>
       </c>
       <c r="E22" s="17">
-        <v>51336919</v>
+        <v>76404043</v>
       </c>
       <c r="F22" s="17">
-        <v>76404043</v>
+        <v>60129373</v>
       </c>
       <c r="G22" s="17">
-        <v>60129373</v>
+        <v>68819233</v>
       </c>
       <c r="H22" s="17">
-        <v>68819233</v>
+        <v>53410004</v>
       </c>
       <c r="I22" s="17">
-        <v>53410004</v>
+        <v>87118284</v>
       </c>
       <c r="J22" s="17">
-        <v>87118284</v>
+        <v>68938963</v>
       </c>
       <c r="K22" s="17">
-        <v>68938963</v>
+        <v>27108009</v>
       </c>
       <c r="L22" s="17">
-        <v>27108009</v>
+        <v>44102050</v>
       </c>
       <c r="M22" s="17">
-        <v>44102050</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>64318300</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1291,79 +1291,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>30560000</v>
+        <v>51336919</v>
       </c>
       <c r="E24" s="17">
-        <v>51336919</v>
+        <v>76404043</v>
       </c>
       <c r="F24" s="17">
-        <v>76404043</v>
+        <v>60129373</v>
       </c>
       <c r="G24" s="17">
-        <v>60129373</v>
+        <v>68819233</v>
       </c>
       <c r="H24" s="17">
-        <v>68819233</v>
+        <v>53410004</v>
       </c>
       <c r="I24" s="17">
-        <v>53410004</v>
+        <v>87118284</v>
       </c>
       <c r="J24" s="17">
-        <v>87118284</v>
+        <v>68938963</v>
       </c>
       <c r="K24" s="17">
-        <v>68938963</v>
+        <v>27108009</v>
       </c>
       <c r="L24" s="17">
-        <v>27108009</v>
+        <v>44102050</v>
       </c>
       <c r="M24" s="17">
-        <v>44102050</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>64318300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>551</v>
+        <v>925</v>
       </c>
       <c r="E25" s="13">
-        <v>925</v>
+        <v>1377</v>
       </c>
       <c r="F25" s="13">
-        <v>1377</v>
+        <v>1083</v>
       </c>
       <c r="G25" s="13">
-        <v>1083</v>
+        <v>1240</v>
       </c>
       <c r="H25" s="13">
-        <v>1240</v>
+        <v>449</v>
       </c>
       <c r="I25" s="13">
-        <v>449</v>
+        <v>732</v>
       </c>
       <c r="J25" s="13">
-        <v>732</v>
+        <v>579</v>
       </c>
       <c r="K25" s="13">
-        <v>579</v>
+        <v>228</v>
       </c>
       <c r="L25" s="13">
-        <v>228</v>
+        <v>371</v>
       </c>
       <c r="M25" s="13">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1381,7 +1381,7 @@
         <v>55500000</v>
       </c>
       <c r="H26" s="11">
-        <v>55500000</v>
+        <v>119000000</v>
       </c>
       <c r="I26" s="11">
         <v>119000000</v>
@@ -1395,47 +1395,47 @@
       <c r="L26" s="11">
         <v>119000000</v>
       </c>
-      <c r="M26" s="13">
+      <c r="M26" s="11">
         <v>192500000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="E27" s="13">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F27" s="13">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="G27" s="13">
-        <v>312</v>
+        <v>253</v>
       </c>
       <c r="H27" s="13">
-        <v>358</v>
+        <v>197</v>
       </c>
       <c r="I27" s="13">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="J27" s="13">
-        <v>453</v>
+        <v>254</v>
       </c>
       <c r="K27" s="13">
-        <v>358</v>
+        <v>100</v>
       </c>
       <c r="L27" s="13">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="M27" s="13">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
